--- a/Kelson.Common.DataStructures/Kelson.Common.DataStructures/Sets/Offsets.xlsx
+++ b/Kelson.Common.DataStructures/Kelson.Common.DataStructures/Sets/Offsets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelso\Documents\GitHub\Kelson.Common.DataStructures\Kelson.Common.DataStructures\Kelson.Common.DataStructures\Sets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E69B0084-A805-4751-A5FF-B8F71301A6D7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9778B10A-D67C-49CC-A918-8E5BD0FB72FB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8430" xr2:uid="{E21E9295-0D2E-4F23-894F-8CAADEA694FE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
   <si>
     <t>bit offset -1</t>
   </si>
@@ -56,14 +56,33 @@
   <si>
     <t>12,13,15,16,17,19,21,25,26,27,28,29,30,31,32,33,36,39,40,41,42,43,44,45,46,47</t>
   </si>
+  <si>
+    <t>-11, -8, -7, -3, -1, 0, 3, 5, 6, 8, 10, 11, 13, 14, 16, 17, 18, 19, 24, 26, 27, 28, 30, 32, 34, 35, 36, 38, 41, 42, 43, 44, 45, 46, 47, 48, 49</t>
+  </si>
+  <si>
+    <t>-26, -25, -22, -21, -20, -18, -17, -15, -13, -10, -9, -8, -6, -5, -4, -3, -1, 0, 2, 3, 4, 6, 8, 9, 11, 12, 13, 14, 15, 16, 22, 24, 27, 29, 31, 34, 37, 39, 40, 41, 42, 45, 46, 47, 48, 49, 50, 51, 53, 54, 57, 58, 59, 60, 61, 62</t>
+  </si>
+  <si>
+    <t>29,31,32,33,34,36,39,42,47,48,50,51,52,57,58,59,60,65,66,67,69,72,74,76,78,79,80,81,83</t>
+  </si>
+  <si>
+    <t>62,63,65,69,75,79,81,82,83,86,88,90,91,92,93,94,98,99,103,105,106,108,109,110,113,114,118,120</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -226,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -298,11 +317,30 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -612,15 +650,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0262ABF-A315-41F4-899B-DD3E4FF0AD13}">
-  <dimension ref="C3:DG70"/>
+  <dimension ref="A3:DG79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BO26" sqref="BO26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="111" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" customWidth="1"/>
+    <col min="4" max="111" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:111" x14ac:dyDescent="0.25">
@@ -1765,13 +1805,13 @@
       <c r="DA15" s="3"/>
       <c r="DB15" s="3"/>
     </row>
-    <row r="17" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:93" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:93" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>0</v>
       </c>
@@ -1956,7 +1996,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:93" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>-4</v>
       </c>
@@ -2141,7 +2181,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:93" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3">
@@ -2271,7 +2311,7 @@
       <c r="BM20" s="2"/>
       <c r="BN20" s="2"/>
     </row>
-    <row r="21" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:93" x14ac:dyDescent="0.25">
       <c r="R21" s="3"/>
       <c r="S21" s="3">
         <v>1</v>
@@ -2365,7 +2405,7 @@
       <c r="BD21" s="3"/>
       <c r="BE21" s="3"/>
     </row>
-    <row r="22" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:93" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2483,7 +2523,7 @@
       <c r="BM22" s="3"/>
       <c r="BN22" s="3"/>
     </row>
-    <row r="24" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:93" x14ac:dyDescent="0.25">
       <c r="N24" s="44"/>
       <c r="O24" s="44"/>
       <c r="P24" s="44"/>
@@ -2493,1834 +2533,2762 @@
       <c r="T24" s="44"/>
       <c r="U24" s="44"/>
     </row>
-    <row r="29" spans="3:66" x14ac:dyDescent="0.25">
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-    </row>
-    <row r="32" spans="3:66" x14ac:dyDescent="0.25">
-      <c r="AG32" t="s">
+    <row r="25" spans="3:93" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>-12</v>
+      </c>
+      <c r="D25">
+        <v>65</v>
+      </c>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+    </row>
+    <row r="26" spans="3:93" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:93" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>-26</v>
+      </c>
+      <c r="D28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="3:93" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="3:93" x14ac:dyDescent="0.25">
+      <c r="C32" s="45" t="b">
+        <f>ISNUMBER(SEARCH(C33,$C$29))</f>
+        <v>1</v>
+      </c>
+      <c r="D32" s="45" t="b">
+        <f t="shared" ref="D32:BO32" si="0">ISNUMBER(SEARCH(D33,$C$29))</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AD32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AF32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AH32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AI32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AK32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AL32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AM32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AN32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AO32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AP32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AQ32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AR32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AS32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AT32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AU32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AV32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AX32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AY32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AZ32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BA32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BB32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BC32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BD32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BE32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BF32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BG32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BH32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BI32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BJ32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BK32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BL32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BM32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BN32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BO32" s="45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BP32" s="45" t="b">
+        <f t="shared" ref="BP32:CO32" si="1">ISNUMBER(SEARCH(BP33,$C$29))</f>
+        <v>1</v>
+      </c>
+      <c r="BQ32" s="45" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BR32" s="45" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BS32" s="45" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BT32" s="45" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BU32" s="45" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BV32" s="45" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BW32" s="45" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BX32" s="45" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BY32" s="45" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BZ32" s="45" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="CA32" s="45" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="CB32" s="45" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="CC32" s="45" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CD32" s="45" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="CE32" s="45" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="CF32" s="45" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CG32" s="45" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CH32" s="45" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="CI32" s="45" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="CJ32" s="45" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="CK32" s="45" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="CL32" s="45" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="CM32" s="45" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="CN32" s="45" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CO32" s="45" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>-26</v>
+      </c>
+      <c r="D33">
+        <v>-25</v>
+      </c>
+      <c r="E33">
+        <v>-24</v>
+      </c>
+      <c r="F33">
+        <v>-23</v>
+      </c>
+      <c r="G33">
+        <v>-22</v>
+      </c>
+      <c r="H33">
+        <v>-21</v>
+      </c>
+      <c r="I33">
+        <v>-20</v>
+      </c>
+      <c r="J33">
+        <v>-19</v>
+      </c>
+      <c r="K33">
+        <v>-18</v>
+      </c>
+      <c r="L33">
+        <v>-17</v>
+      </c>
+      <c r="M33">
+        <v>-16</v>
+      </c>
+      <c r="N33">
+        <v>-15</v>
+      </c>
+      <c r="O33">
+        <v>-14</v>
+      </c>
+      <c r="P33">
+        <v>-13</v>
+      </c>
+      <c r="Q33">
+        <v>-12</v>
+      </c>
+      <c r="R33">
+        <v>-11</v>
+      </c>
+      <c r="S33">
+        <v>-10</v>
+      </c>
+      <c r="T33">
+        <v>-9</v>
+      </c>
+      <c r="U33">
+        <v>-8</v>
+      </c>
+      <c r="V33">
+        <v>-7</v>
+      </c>
+      <c r="W33">
+        <v>-6</v>
+      </c>
+      <c r="X33">
+        <v>-5</v>
+      </c>
+      <c r="Y33">
+        <v>-4</v>
+      </c>
+      <c r="Z33">
+        <v>-3</v>
+      </c>
+      <c r="AA33">
+        <v>-2</v>
+      </c>
+      <c r="AB33">
+        <v>-1</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>2</v>
+      </c>
+      <c r="AF33">
+        <v>3</v>
+      </c>
+      <c r="AG33">
+        <v>4</v>
+      </c>
+      <c r="AH33">
+        <v>5</v>
+      </c>
+      <c r="AI33">
         <v>6</v>
       </c>
-      <c r="AH32" t="s">
+      <c r="AJ33">
         <v>7</v>
       </c>
-      <c r="AI32" t="s">
+      <c r="AK33">
+        <v>8</v>
+      </c>
+      <c r="AL33">
+        <v>9</v>
+      </c>
+      <c r="AM33">
+        <v>10</v>
+      </c>
+      <c r="AN33">
+        <v>11</v>
+      </c>
+      <c r="AO33">
+        <v>12</v>
+      </c>
+      <c r="AP33">
+        <v>13</v>
+      </c>
+      <c r="AQ33">
+        <v>14</v>
+      </c>
+      <c r="AR33">
+        <v>15</v>
+      </c>
+      <c r="AS33">
+        <v>16</v>
+      </c>
+      <c r="AT33">
+        <v>17</v>
+      </c>
+      <c r="AU33">
+        <v>18</v>
+      </c>
+      <c r="AV33">
+        <v>19</v>
+      </c>
+      <c r="AW33">
+        <v>20</v>
+      </c>
+      <c r="AX33">
+        <v>21</v>
+      </c>
+      <c r="AY33">
+        <v>22</v>
+      </c>
+      <c r="AZ33">
+        <v>23</v>
+      </c>
+      <c r="BA33">
+        <v>24</v>
+      </c>
+      <c r="BB33">
+        <v>25</v>
+      </c>
+      <c r="BC33">
+        <v>26</v>
+      </c>
+      <c r="BD33">
+        <v>27</v>
+      </c>
+      <c r="BE33">
+        <v>28</v>
+      </c>
+      <c r="BF33">
+        <v>29</v>
+      </c>
+      <c r="BG33">
+        <v>30</v>
+      </c>
+      <c r="BH33">
+        <v>31</v>
+      </c>
+      <c r="BI33">
+        <v>32</v>
+      </c>
+      <c r="BJ33">
+        <v>33</v>
+      </c>
+      <c r="BK33">
+        <v>34</v>
+      </c>
+      <c r="BL33">
+        <v>35</v>
+      </c>
+      <c r="BM33">
+        <v>36</v>
+      </c>
+      <c r="BN33">
+        <v>37</v>
+      </c>
+      <c r="BO33">
+        <v>38</v>
+      </c>
+      <c r="BP33">
+        <v>39</v>
+      </c>
+      <c r="BQ33">
+        <v>40</v>
+      </c>
+      <c r="BR33">
+        <v>41</v>
+      </c>
+      <c r="BS33">
+        <v>42</v>
+      </c>
+      <c r="BT33">
+        <v>43</v>
+      </c>
+      <c r="BU33">
+        <v>44</v>
+      </c>
+      <c r="BV33">
+        <v>45</v>
+      </c>
+      <c r="BW33">
+        <v>46</v>
+      </c>
+      <c r="BX33">
+        <v>47</v>
+      </c>
+      <c r="BY33">
+        <v>48</v>
+      </c>
+      <c r="BZ33">
+        <v>49</v>
+      </c>
+      <c r="CA33">
+        <v>50</v>
+      </c>
+      <c r="CB33">
+        <v>51</v>
+      </c>
+      <c r="CC33">
+        <v>52</v>
+      </c>
+      <c r="CD33">
+        <v>53</v>
+      </c>
+      <c r="CE33">
+        <v>54</v>
+      </c>
+      <c r="CF33">
+        <v>55</v>
+      </c>
+      <c r="CG33">
+        <v>56</v>
+      </c>
+      <c r="CH33">
+        <v>57</v>
+      </c>
+      <c r="CI33">
+        <v>58</v>
+      </c>
+      <c r="CJ33">
+        <v>59</v>
+      </c>
+      <c r="CK33">
+        <v>60</v>
+      </c>
+      <c r="CL33">
+        <v>61</v>
+      </c>
+      <c r="CM33">
+        <v>62</v>
+      </c>
+      <c r="CN33">
+        <v>63</v>
+      </c>
+      <c r="CO33">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3">
+        <v>1</v>
+      </c>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3">
+        <v>4</v>
+      </c>
+      <c r="V34" s="3">
+        <v>5</v>
+      </c>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE34" s="2">
         <v>6</v>
       </c>
-      <c r="AJ32" t="s">
+      <c r="AF34" s="2">
         <v>7</v>
       </c>
-      <c r="AK32" t="s">
+      <c r="AG34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI34" s="3">
+        <v>2</v>
+      </c>
+      <c r="AJ34" s="3">
+        <v>3</v>
+      </c>
+      <c r="AK34" s="3">
+        <v>4</v>
+      </c>
+      <c r="AL34" s="3">
+        <v>5</v>
+      </c>
+      <c r="AM34" s="3">
         <v>6</v>
       </c>
-      <c r="AL32" t="s">
+      <c r="AN34" s="3">
         <v>7</v>
       </c>
-      <c r="AM32" t="s">
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ34" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2">
+        <v>4</v>
+      </c>
+      <c r="AT34" s="2">
+        <v>5</v>
+      </c>
+      <c r="AU34" s="2">
         <v>6</v>
       </c>
-      <c r="AN32" t="s">
+      <c r="AV34" s="2">
         <v>7</v>
       </c>
-      <c r="AO32" t="s">
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3">
+        <v>4</v>
+      </c>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3">
         <v>6</v>
       </c>
-      <c r="AP32" t="s">
+      <c r="BD34" s="3">
         <v>7</v>
       </c>
-      <c r="AQ32" t="s">
+      <c r="BE34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF34" s="2"/>
+      <c r="BG34" s="2">
+        <v>2</v>
+      </c>
+      <c r="BH34" s="2"/>
+      <c r="BI34" s="2">
+        <v>4</v>
+      </c>
+      <c r="BJ34" s="2"/>
+      <c r="BK34" s="2">
         <v>6</v>
       </c>
-      <c r="AR32" t="s">
+      <c r="BL34" s="2">
         <v>7</v>
       </c>
-      <c r="AS32" t="s">
+      <c r="BM34" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN34" s="3"/>
+      <c r="BO34" s="3">
+        <v>2</v>
+      </c>
+      <c r="BP34" s="3"/>
+      <c r="BQ34" s="3"/>
+      <c r="BR34" s="3">
+        <v>5</v>
+      </c>
+      <c r="BS34" s="3">
         <v>6</v>
       </c>
-      <c r="AT32" t="s">
+      <c r="BT34" s="3">
         <v>7</v>
       </c>
-      <c r="AU32" t="s">
+      <c r="BU34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW34" s="2">
+        <v>2</v>
+      </c>
+      <c r="BX34" s="2">
+        <v>3</v>
+      </c>
+      <c r="BY34" s="2">
+        <v>4</v>
+      </c>
+      <c r="BZ34" s="2">
+        <v>5</v>
+      </c>
+      <c r="CA34" s="2"/>
+      <c r="CB34" s="2"/>
+    </row>
+    <row r="35" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
         <v>6</v>
       </c>
-      <c r="AV32" t="s">
+      <c r="J35" s="3"/>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2">
+        <v>3</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>1</v>
+      </c>
+      <c r="U35" s="3">
+        <v>2</v>
+      </c>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3">
+        <v>4</v>
+      </c>
+      <c r="X35" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>6</v>
+      </c>
+      <c r="Z35" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="5:52" x14ac:dyDescent="0.25">
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33">
+      <c r="AA35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE35" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF35" s="2">
+        <v>5</v>
+      </c>
+      <c r="AG35" s="2">
+        <v>6</v>
+      </c>
+      <c r="AH35" s="2">
+        <v>7</v>
+      </c>
+      <c r="AI35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="3">
+        <v>2</v>
+      </c>
+      <c r="AL35" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM35" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN35" s="3">
+        <v>5</v>
+      </c>
+      <c r="AO35" s="3">
+        <v>6</v>
+      </c>
+      <c r="AP35" s="3">
+        <v>7</v>
+      </c>
+      <c r="AQ35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS35" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT35" s="2">
+        <v>3</v>
+      </c>
+      <c r="AU35" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV35" s="2"/>
+      <c r="AW35" s="2">
+        <v>6</v>
+      </c>
+      <c r="AX35" s="2">
+        <v>7</v>
+      </c>
+      <c r="AY35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="3"/>
+      <c r="BA35" s="3">
+        <v>2</v>
+      </c>
+      <c r="BB35" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC35" s="3">
+        <v>4</v>
+      </c>
+      <c r="BD35" s="3">
+        <v>5</v>
+      </c>
+      <c r="BE35" s="3"/>
+      <c r="BF35" s="3">
+        <v>7</v>
+      </c>
+      <c r="BG35" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH35" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI35" s="2"/>
+      <c r="BJ35" s="2"/>
+      <c r="BK35" s="2">
+        <v>4</v>
+      </c>
+      <c r="BL35" s="2"/>
+      <c r="BM35" s="2"/>
+      <c r="BN35" s="2">
+        <v>7</v>
+      </c>
+      <c r="BO35" s="3"/>
+      <c r="BP35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BQ35" s="3">
+        <v>2</v>
+      </c>
+      <c r="BR35" s="3">
+        <v>3</v>
+      </c>
+      <c r="BS35" s="3">
+        <v>4</v>
+      </c>
+      <c r="BT35" s="3"/>
+      <c r="BU35" s="3"/>
+      <c r="BV35" s="3">
+        <v>7</v>
+      </c>
+      <c r="BW35" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX35" s="2">
+        <v>1</v>
+      </c>
+      <c r="BY35" s="2">
+        <v>2</v>
+      </c>
+      <c r="BZ35" s="2">
+        <v>3</v>
+      </c>
+      <c r="CA35" s="2">
+        <v>4</v>
+      </c>
+      <c r="CB35" s="2">
+        <v>5</v>
+      </c>
+      <c r="CC35" s="2"/>
+      <c r="CD35" s="2">
+        <v>7</v>
+      </c>
+      <c r="CE35" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF35" s="3"/>
+      <c r="CG35" s="3"/>
+      <c r="CH35" s="3">
+        <v>3</v>
+      </c>
+      <c r="CI35" s="3">
+        <v>4</v>
+      </c>
+      <c r="CJ35" s="3">
+        <v>5</v>
+      </c>
+      <c r="CK35" s="3">
+        <v>6</v>
+      </c>
+      <c r="CL35" s="3">
+        <v>7</v>
+      </c>
+      <c r="CM35" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN35" s="2"/>
+      <c r="CO35" s="2"/>
+      <c r="CP35" s="2"/>
+      <c r="CQ35" s="2"/>
+      <c r="CR35" s="2"/>
+      <c r="CS35" s="2"/>
+      <c r="CT35" s="2"/>
+    </row>
+    <row r="36" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3">
+        <v>2</v>
+      </c>
+      <c r="T36" s="3">
+        <v>3</v>
+      </c>
+      <c r="U36" s="3">
+        <v>4</v>
+      </c>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3">
+        <v>6</v>
+      </c>
+      <c r="X36" s="3">
+        <v>7</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>6</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>7</v>
+      </c>
+      <c r="AG36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>2</v>
+      </c>
+      <c r="AJ36" s="3">
+        <v>3</v>
+      </c>
+      <c r="AK36" s="3">
+        <v>4</v>
+      </c>
+      <c r="AL36" s="3">
+        <v>5</v>
+      </c>
+      <c r="AM36" s="3">
+        <v>6</v>
+      </c>
+      <c r="AN36" s="3">
+        <v>7</v>
+      </c>
+      <c r="AO36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ36" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR36" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS36" s="2">
+        <v>4</v>
+      </c>
+      <c r="AT36" s="2">
+        <v>5</v>
+      </c>
+      <c r="AU36" s="2">
+        <v>6</v>
+      </c>
+      <c r="AV36" s="2"/>
+      <c r="AW36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY36" s="3">
+        <v>2</v>
+      </c>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="3">
+        <v>4</v>
+      </c>
+      <c r="BB36" s="3">
+        <v>5</v>
+      </c>
+      <c r="BC36" s="3">
+        <v>6</v>
+      </c>
+      <c r="BD36" s="3">
+        <v>7</v>
+      </c>
+      <c r="BE36" s="2"/>
+      <c r="BF36" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG36" s="2">
+        <v>2</v>
+      </c>
+      <c r="BH36" s="2">
+        <v>3</v>
+      </c>
+      <c r="BI36" s="2"/>
+      <c r="BJ36" s="2"/>
+      <c r="BK36" s="2">
+        <v>6</v>
+      </c>
+      <c r="BL36" s="2"/>
+      <c r="BM36" s="3"/>
+      <c r="BN36" s="3">
+        <v>1</v>
+      </c>
+      <c r="BO36" s="3"/>
+      <c r="BP36" s="3">
+        <v>3</v>
+      </c>
+      <c r="BQ36" s="3">
+        <v>4</v>
+      </c>
+      <c r="BR36" s="3">
+        <v>5</v>
+      </c>
+      <c r="BS36" s="3">
+        <v>6</v>
+      </c>
+      <c r="BT36" s="3"/>
+      <c r="BU36" s="2"/>
+      <c r="BV36" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW36" s="2">
+        <v>2</v>
+      </c>
+      <c r="BX36" s="2">
+        <v>3</v>
+      </c>
+      <c r="BY36" s="2">
+        <v>4</v>
+      </c>
+      <c r="BZ36" s="2">
+        <v>5</v>
+      </c>
+      <c r="CA36" s="2"/>
+      <c r="CB36" s="2"/>
+    </row>
+    <row r="38" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="44"/>
+    </row>
+    <row r="39" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>29</v>
+      </c>
+      <c r="B39">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>60</v>
+      </c>
+      <c r="B40">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="AG41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42">
         <v>-4</v>
       </c>
-      <c r="I33">
+      <c r="I42">
         <v>-3</v>
       </c>
-      <c r="J33">
+      <c r="J42">
         <v>-2</v>
       </c>
-      <c r="K33">
+      <c r="K42">
         <v>-1</v>
       </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <v>2</v>
-      </c>
-      <c r="O33">
-        <v>3</v>
-      </c>
-      <c r="P33">
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42">
+        <v>3</v>
+      </c>
+      <c r="P42">
         <v>4</v>
       </c>
-      <c r="Q33">
+      <c r="Q42">
         <v>5</v>
       </c>
-      <c r="R33">
+      <c r="R42">
         <v>6</v>
       </c>
-      <c r="S33">
+      <c r="S42">
         <v>7</v>
       </c>
-      <c r="T33">
+      <c r="T42">
         <v>8</v>
       </c>
-      <c r="U33">
+      <c r="U42">
         <v>9</v>
       </c>
-      <c r="V33">
+      <c r="V42">
         <v>10</v>
       </c>
-      <c r="AG33" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="10">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="10">
-        <v>1</v>
-      </c>
-      <c r="AK33" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="10">
-        <v>2</v>
-      </c>
-      <c r="AM33" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN33" s="10">
-        <v>3</v>
-      </c>
-      <c r="AO33" s="12">
-        <v>1</v>
-      </c>
-      <c r="AP33" s="12">
-        <v>0</v>
-      </c>
-      <c r="AQ33" s="12">
-        <v>1</v>
-      </c>
-      <c r="AR33" s="12">
-        <v>1</v>
-      </c>
-      <c r="AS33" s="12">
-        <v>1</v>
-      </c>
-      <c r="AT33" s="12">
-        <v>2</v>
-      </c>
-      <c r="AU33" s="12">
-        <v>1</v>
-      </c>
-      <c r="AV33" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="5:52" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
+      <c r="AG42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="10">
+        <v>2</v>
+      </c>
+      <c r="AM42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="10">
+        <v>3</v>
+      </c>
+      <c r="AO42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT42" s="12">
+        <v>2</v>
+      </c>
+      <c r="AU42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV42" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F43" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G43" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="O34" s="13">
-        <v>0</v>
-      </c>
-      <c r="P34" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="14">
-        <v>2</v>
-      </c>
-      <c r="R34" s="14">
-        <v>3</v>
-      </c>
-      <c r="S34" s="15">
-        <v>0</v>
-      </c>
-      <c r="T34" s="15">
-        <v>1</v>
-      </c>
-      <c r="U34" s="15">
-        <v>2</v>
-      </c>
-      <c r="V34" s="15">
-        <v>3</v>
-      </c>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16"/>
-      <c r="AC34" s="16"/>
-      <c r="AD34" s="16"/>
-      <c r="AE34" s="17"/>
-      <c r="AF34" s="17"/>
-      <c r="AG34" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH34" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI34" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ34" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK34" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL34" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM34" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN34" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO34" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP34" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ34" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR34" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS34" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT34" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU34" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV34" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="5:52" x14ac:dyDescent="0.25">
-      <c r="E35">
+      <c r="O43" s="13">
+        <v>0</v>
+      </c>
+      <c r="P43" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="14">
+        <v>2</v>
+      </c>
+      <c r="R43" s="14">
+        <v>3</v>
+      </c>
+      <c r="S43" s="15">
+        <v>0</v>
+      </c>
+      <c r="T43" s="15">
+        <v>1</v>
+      </c>
+      <c r="U43" s="15">
+        <v>2</v>
+      </c>
+      <c r="V43" s="15">
+        <v>3</v>
+      </c>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
+      <c r="AD43" s="16"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="17"/>
+      <c r="AG43" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH43" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI43" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ43" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK43" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL43" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM43" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN43" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO43" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP43" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ43" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR43" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS43" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT43" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU43" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV43" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="E44">
         <v>-7</v>
       </c>
-      <c r="F35">
+      <c r="F44">
         <v>-1</v>
       </c>
-      <c r="G35">
+      <c r="G44">
         <v>-3</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1</v>
-      </c>
-      <c r="J35" s="3">
-        <v>2</v>
-      </c>
-      <c r="K35" s="3">
-        <v>3</v>
-      </c>
-      <c r="L35" s="2">
-        <v>0</v>
-      </c>
-      <c r="M35" s="2">
-        <v>1</v>
-      </c>
-      <c r="N35" s="2">
-        <v>2</v>
-      </c>
-      <c r="O35" s="18">
-        <v>3</v>
-      </c>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
-      <c r="X35" s="20"/>
-      <c r="Y35" s="20"/>
-      <c r="Z35" s="20"/>
-      <c r="AA35" s="20"/>
-      <c r="AB35" s="20"/>
-      <c r="AC35" s="20"/>
-      <c r="AD35" s="20"/>
-      <c r="AE35" s="20"/>
-      <c r="AF35" s="20"/>
-      <c r="AG35" s="21">
-        <v>1</v>
-      </c>
-      <c r="AH35" s="21">
-        <v>3</v>
-      </c>
-      <c r="AI35" s="22"/>
-      <c r="AJ35" s="22"/>
-      <c r="AK35" s="22"/>
-      <c r="AL35" s="22"/>
-      <c r="AM35" s="22"/>
-      <c r="AN35" s="22"/>
-      <c r="AO35" s="22"/>
-      <c r="AP35" s="22"/>
-      <c r="AQ35" s="22"/>
-      <c r="AR35" s="22"/>
-      <c r="AS35" s="22"/>
-      <c r="AT35" s="22"/>
-      <c r="AU35" s="22"/>
-      <c r="AV35" s="23"/>
-      <c r="AW35" s="6"/>
-      <c r="AX35" s="6"/>
-      <c r="AY35" s="6"/>
-      <c r="AZ35" s="6"/>
-    </row>
-    <row r="36" spans="5:52" x14ac:dyDescent="0.25">
-      <c r="E36">
-        <v>-6</v>
-      </c>
-      <c r="F36">
-        <v>-1</v>
-      </c>
-      <c r="G36">
-        <v>-2</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
-        <v>1</v>
-      </c>
-      <c r="K36" s="3">
-        <v>2</v>
-      </c>
-      <c r="L36" s="3">
-        <v>3</v>
-      </c>
-      <c r="M36" s="2">
-        <v>0</v>
-      </c>
-      <c r="N36" s="2">
-        <v>1</v>
-      </c>
-      <c r="O36" s="18">
-        <v>2</v>
-      </c>
-      <c r="P36" s="24">
-        <v>3</v>
-      </c>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="20"/>
-      <c r="AA36" s="20"/>
-      <c r="AB36" s="20"/>
-      <c r="AC36" s="20"/>
-      <c r="AD36" s="20"/>
-      <c r="AE36" s="20"/>
-      <c r="AF36" s="20"/>
-      <c r="AG36" s="21">
-        <v>1</v>
-      </c>
-      <c r="AH36" s="21">
-        <v>2</v>
-      </c>
-      <c r="AI36" s="21">
-        <v>1</v>
-      </c>
-      <c r="AJ36" s="21">
-        <v>3</v>
-      </c>
-      <c r="AK36" s="22"/>
-      <c r="AL36" s="22"/>
-      <c r="AM36" s="22"/>
-      <c r="AN36" s="22"/>
-      <c r="AO36" s="22"/>
-      <c r="AP36" s="22"/>
-      <c r="AQ36" s="22"/>
-      <c r="AR36" s="22"/>
-      <c r="AS36" s="22"/>
-      <c r="AT36" s="22"/>
-      <c r="AU36" s="22"/>
-      <c r="AV36" s="23"/>
-      <c r="AW36" s="6"/>
-      <c r="AX36" s="6"/>
-      <c r="AY36" s="6"/>
-      <c r="AZ36" s="6"/>
-    </row>
-    <row r="37" spans="5:52" x14ac:dyDescent="0.25">
-      <c r="E37">
-        <v>-5</v>
-      </c>
-      <c r="F37">
-        <v>-1</v>
-      </c>
-      <c r="G37">
-        <v>-1</v>
-      </c>
-      <c r="J37" s="3">
-        <v>0</v>
-      </c>
-      <c r="K37" s="3">
-        <v>1</v>
-      </c>
-      <c r="L37" s="3">
-        <v>2</v>
-      </c>
-      <c r="M37" s="3">
-        <v>3</v>
-      </c>
-      <c r="N37" s="2">
-        <v>0</v>
-      </c>
-      <c r="O37" s="18">
-        <v>1</v>
-      </c>
-      <c r="P37" s="24">
-        <v>2</v>
-      </c>
-      <c r="Q37" s="24">
-        <v>3</v>
-      </c>
-      <c r="R37" s="19"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="20"/>
-      <c r="AD37" s="20"/>
-      <c r="AE37" s="20"/>
-      <c r="AF37" s="20"/>
-      <c r="AG37" s="21">
-        <v>1</v>
-      </c>
-      <c r="AH37" s="21">
-        <v>1</v>
-      </c>
-      <c r="AI37" s="21">
-        <v>1</v>
-      </c>
-      <c r="AJ37" s="21">
-        <v>2</v>
-      </c>
-      <c r="AK37" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL37" s="21">
-        <v>3</v>
-      </c>
-      <c r="AM37" s="22"/>
-      <c r="AN37" s="22"/>
-      <c r="AO37" s="22"/>
-      <c r="AP37" s="22"/>
-      <c r="AQ37" s="22"/>
-      <c r="AR37" s="22"/>
-      <c r="AS37" s="22"/>
-      <c r="AT37" s="22"/>
-      <c r="AU37" s="22"/>
-      <c r="AV37" s="23"/>
-      <c r="AW37" s="6"/>
-      <c r="AX37" s="6"/>
-      <c r="AY37" s="6"/>
-      <c r="AZ37" s="6"/>
-    </row>
-    <row r="38" spans="5:52" x14ac:dyDescent="0.25">
-      <c r="E38">
-        <v>-4</v>
-      </c>
-      <c r="F38">
-        <v>-1</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0</v>
-      </c>
-      <c r="L38" s="3">
-        <v>1</v>
-      </c>
-      <c r="M38" s="3">
-        <v>2</v>
-      </c>
-      <c r="N38" s="3">
-        <v>3</v>
-      </c>
-      <c r="O38" s="18">
-        <v>0</v>
-      </c>
-      <c r="P38" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="24">
-        <v>2</v>
-      </c>
-      <c r="R38" s="24">
-        <v>3</v>
-      </c>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="20"/>
-      <c r="Z38" s="20"/>
-      <c r="AA38" s="20"/>
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="20"/>
-      <c r="AD38" s="20"/>
-      <c r="AE38" s="20"/>
-      <c r="AF38" s="20"/>
-      <c r="AG38" s="21">
-        <v>1</v>
-      </c>
-      <c r="AH38" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="21">
-        <v>1</v>
-      </c>
-      <c r="AJ38" s="21">
-        <v>1</v>
-      </c>
-      <c r="AK38" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL38" s="21">
-        <v>2</v>
-      </c>
-      <c r="AM38" s="21">
-        <v>1</v>
-      </c>
-      <c r="AN38" s="21">
-        <v>3</v>
-      </c>
-      <c r="AO38" s="22"/>
-      <c r="AP38" s="22"/>
-      <c r="AQ38" s="22"/>
-      <c r="AR38" s="22"/>
-      <c r="AS38" s="19"/>
-      <c r="AT38" s="19"/>
-      <c r="AU38" s="19"/>
-      <c r="AV38" s="35"/>
-      <c r="AW38" s="6"/>
-      <c r="AX38" s="6"/>
-      <c r="AY38" s="6"/>
-      <c r="AZ38" s="6"/>
-    </row>
-    <row r="39" spans="5:52" x14ac:dyDescent="0.25">
-      <c r="E39">
-        <v>-3</v>
-      </c>
-      <c r="F39" s="36">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>-3</v>
-      </c>
-      <c r="L39" s="3">
-        <v>0</v>
-      </c>
-      <c r="M39" s="3">
-        <v>1</v>
-      </c>
-      <c r="N39" s="3">
-        <v>2</v>
-      </c>
-      <c r="O39" s="25">
-        <v>3</v>
-      </c>
-      <c r="P39" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="24">
-        <v>1</v>
-      </c>
-      <c r="R39" s="24">
-        <v>2</v>
-      </c>
-      <c r="S39" s="24">
-        <v>3</v>
-      </c>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="20"/>
-      <c r="AA39" s="20"/>
-      <c r="AB39" s="20"/>
-      <c r="AC39" s="20"/>
-      <c r="AD39" s="20"/>
-      <c r="AE39" s="20"/>
-      <c r="AF39" s="20"/>
-      <c r="AG39" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="26">
-        <v>3</v>
-      </c>
-      <c r="AI39" s="21">
-        <v>1</v>
-      </c>
-      <c r="AJ39" s="21">
-        <v>0</v>
-      </c>
-      <c r="AK39" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL39" s="21">
-        <v>1</v>
-      </c>
-      <c r="AM39" s="21">
-        <v>1</v>
-      </c>
-      <c r="AN39" s="21">
-        <v>2</v>
-      </c>
-      <c r="AO39" s="21">
-        <v>1</v>
-      </c>
-      <c r="AP39" s="21">
-        <v>3</v>
-      </c>
-      <c r="AQ39" s="22"/>
-      <c r="AR39" s="22"/>
-      <c r="AS39" s="19"/>
-      <c r="AT39" s="19"/>
-      <c r="AU39" s="19"/>
-      <c r="AV39" s="35"/>
-      <c r="AW39" s="6"/>
-      <c r="AX39" s="6"/>
-      <c r="AY39" s="6"/>
-      <c r="AZ39" s="6"/>
-    </row>
-    <row r="40" spans="5:52" x14ac:dyDescent="0.25">
-      <c r="E40">
-        <v>-2</v>
-      </c>
-      <c r="F40" s="37">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>-2</v>
-      </c>
-      <c r="M40" s="3">
-        <v>0</v>
-      </c>
-      <c r="N40" s="3">
-        <v>1</v>
-      </c>
-      <c r="O40" s="25">
-        <v>2</v>
-      </c>
-      <c r="P40" s="27">
-        <v>3</v>
-      </c>
-      <c r="Q40" s="24">
-        <v>0</v>
-      </c>
-      <c r="R40" s="24">
-        <v>1</v>
-      </c>
-      <c r="S40" s="24">
-        <v>2</v>
-      </c>
-      <c r="T40" s="24">
-        <v>3</v>
-      </c>
-      <c r="U40" s="19"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="20"/>
-      <c r="AA40" s="20"/>
-      <c r="AB40" s="20"/>
-      <c r="AC40" s="20"/>
-      <c r="AD40" s="20"/>
-      <c r="AE40" s="20"/>
-      <c r="AF40" s="20"/>
-      <c r="AG40" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="26">
-        <v>2</v>
-      </c>
-      <c r="AI40" s="26">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="26">
-        <v>3</v>
-      </c>
-      <c r="AK40" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL40" s="21">
-        <v>0</v>
-      </c>
-      <c r="AM40" s="21">
-        <v>1</v>
-      </c>
-      <c r="AN40" s="21">
-        <v>1</v>
-      </c>
-      <c r="AO40" s="21">
-        <v>1</v>
-      </c>
-      <c r="AP40" s="21">
-        <v>2</v>
-      </c>
-      <c r="AQ40" s="21">
-        <v>1</v>
-      </c>
-      <c r="AR40" s="21">
-        <v>3</v>
-      </c>
-      <c r="AS40" s="19"/>
-      <c r="AT40" s="19"/>
-      <c r="AU40" s="19"/>
-      <c r="AV40" s="35"/>
-      <c r="AW40" s="6"/>
-      <c r="AX40" s="6"/>
-      <c r="AY40" s="6"/>
-      <c r="AZ40" s="6"/>
-    </row>
-    <row r="41" spans="5:52" x14ac:dyDescent="0.25">
-      <c r="E41">
-        <v>-1</v>
-      </c>
-      <c r="F41" s="37">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>-1</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="25">
-        <v>1</v>
-      </c>
-      <c r="P41" s="27">
-        <v>2</v>
-      </c>
-      <c r="Q41" s="27">
-        <v>3</v>
-      </c>
-      <c r="R41" s="24">
-        <v>0</v>
-      </c>
-      <c r="S41" s="24">
-        <v>1</v>
-      </c>
-      <c r="T41" s="24">
-        <v>2</v>
-      </c>
-      <c r="U41" s="24">
-        <v>3</v>
-      </c>
-      <c r="V41" s="19"/>
-      <c r="W41" s="39"/>
-      <c r="X41" s="39"/>
-      <c r="Y41" s="20"/>
-      <c r="Z41" s="20"/>
-      <c r="AA41" s="20"/>
-      <c r="AB41" s="20"/>
-      <c r="AC41" s="20"/>
-      <c r="AD41" s="20"/>
-      <c r="AE41" s="20"/>
-      <c r="AF41" s="20"/>
-      <c r="AG41" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="26">
-        <v>1</v>
-      </c>
-      <c r="AI41" s="26">
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="26">
-        <v>2</v>
-      </c>
-      <c r="AK41" s="26">
-        <v>0</v>
-      </c>
-      <c r="AL41" s="26">
-        <v>3</v>
-      </c>
-      <c r="AM41" s="21">
-        <v>1</v>
-      </c>
-      <c r="AN41" s="21">
-        <v>0</v>
-      </c>
-      <c r="AO41" s="21">
-        <v>1</v>
-      </c>
-      <c r="AP41" s="21">
-        <v>1</v>
-      </c>
-      <c r="AQ41" s="21">
-        <v>1</v>
-      </c>
-      <c r="AR41" s="21">
-        <v>2</v>
-      </c>
-      <c r="AS41" s="21">
-        <v>1</v>
-      </c>
-      <c r="AT41" s="21">
-        <v>3</v>
-      </c>
-      <c r="AU41" s="22"/>
-      <c r="AV41" s="23"/>
-      <c r="AW41" s="6"/>
-      <c r="AX41" s="6"/>
-      <c r="AY41" s="6"/>
-      <c r="AZ41" s="6"/>
-    </row>
-    <row r="42" spans="5:52" x14ac:dyDescent="0.25">
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42" s="37">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="O42" s="28">
-        <v>0</v>
-      </c>
-      <c r="P42" s="29">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="29">
-        <v>2</v>
-      </c>
-      <c r="R42" s="29">
-        <v>3</v>
-      </c>
-      <c r="S42" s="30">
-        <v>0</v>
-      </c>
-      <c r="T42" s="30">
-        <v>1</v>
-      </c>
-      <c r="U42" s="30">
-        <v>2</v>
-      </c>
-      <c r="V42" s="30">
-        <v>3</v>
-      </c>
-      <c r="W42" s="40"/>
-      <c r="X42" s="40"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="31"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="31"/>
-      <c r="AC42" s="31"/>
-      <c r="AD42" s="31"/>
-      <c r="AE42" s="31"/>
-      <c r="AF42" s="31"/>
-      <c r="AG42" s="32">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="32">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="32">
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="32">
-        <v>1</v>
-      </c>
-      <c r="AK42" s="32">
-        <v>0</v>
-      </c>
-      <c r="AL42" s="32">
-        <v>2</v>
-      </c>
-      <c r="AM42" s="32">
-        <v>0</v>
-      </c>
-      <c r="AN42" s="32">
-        <v>3</v>
-      </c>
-      <c r="AO42" s="33">
-        <v>1</v>
-      </c>
-      <c r="AP42" s="33">
-        <v>0</v>
-      </c>
-      <c r="AQ42" s="33">
-        <v>1</v>
-      </c>
-      <c r="AR42" s="33">
-        <v>1</v>
-      </c>
-      <c r="AS42" s="33">
-        <v>1</v>
-      </c>
-      <c r="AT42" s="33">
-        <v>2</v>
-      </c>
-      <c r="AU42" s="33">
-        <v>1</v>
-      </c>
-      <c r="AV42" s="34">
-        <v>3</v>
-      </c>
-      <c r="AW42" s="9"/>
-      <c r="AX42" s="9"/>
-      <c r="AY42" s="6"/>
-      <c r="AZ42" s="6"/>
-    </row>
-    <row r="43" spans="5:52" x14ac:dyDescent="0.25">
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" s="37">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="O43" s="1"/>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>1</v>
-      </c>
-      <c r="R43" s="3">
-        <v>2</v>
-      </c>
-      <c r="S43" s="3">
-        <v>3</v>
-      </c>
-      <c r="T43" s="2">
-        <v>0</v>
-      </c>
-      <c r="U43" s="2">
-        <v>1</v>
-      </c>
-      <c r="V43" s="2">
-        <v>2</v>
-      </c>
-      <c r="W43" s="2">
-        <v>3</v>
-      </c>
-      <c r="X43" s="6"/>
-      <c r="AG43" s="11"/>
-      <c r="AH43" s="11"/>
-      <c r="AI43" s="10">
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK43" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL43" s="10">
-        <v>1</v>
-      </c>
-      <c r="AM43" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN43" s="10">
-        <v>2</v>
-      </c>
-      <c r="AO43" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP43" s="10">
-        <v>3</v>
-      </c>
-      <c r="AQ43" s="12">
-        <v>1</v>
-      </c>
-      <c r="AR43" s="12">
-        <v>0</v>
-      </c>
-      <c r="AS43" s="21">
-        <v>1</v>
-      </c>
-      <c r="AT43" s="21">
-        <v>1</v>
-      </c>
-      <c r="AU43" s="21">
-        <v>1</v>
-      </c>
-      <c r="AV43" s="21">
-        <v>2</v>
-      </c>
-      <c r="AW43" s="9"/>
-      <c r="AX43" s="9"/>
-      <c r="AY43" s="9"/>
-      <c r="AZ43" s="9"/>
-    </row>
-    <row r="44" spans="5:52" x14ac:dyDescent="0.25">
-      <c r="E44">
-        <v>2</v>
-      </c>
-      <c r="F44" s="37">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3">
-        <v>1</v>
-      </c>
-      <c r="S44" s="3">
-        <v>2</v>
-      </c>
-      <c r="T44" s="3">
-        <v>3</v>
-      </c>
-      <c r="U44" s="2">
-        <v>0</v>
-      </c>
-      <c r="V44" s="2">
-        <v>1</v>
-      </c>
-      <c r="W44" s="2">
-        <v>2</v>
-      </c>
-      <c r="X44" s="2">
-        <v>3</v>
-      </c>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="6"/>
-      <c r="AG44" s="11"/>
-      <c r="AH44" s="11"/>
-      <c r="AI44" s="11"/>
-      <c r="AJ44" s="11"/>
-      <c r="AK44" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL44" s="10">
-        <v>0</v>
-      </c>
-      <c r="AM44" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN44" s="10">
-        <v>1</v>
-      </c>
-      <c r="AO44" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP44" s="10">
-        <v>2</v>
-      </c>
-      <c r="AQ44" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR44" s="10">
-        <v>3</v>
-      </c>
-      <c r="AS44" s="12">
-        <v>1</v>
-      </c>
-      <c r="AT44" s="12">
-        <v>0</v>
-      </c>
-      <c r="AU44" s="12">
-        <v>1</v>
-      </c>
-      <c r="AV44" s="12">
-        <v>2</v>
-      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2</v>
+      </c>
+      <c r="K44" s="3">
+        <v>3</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>1</v>
+      </c>
+      <c r="N44" s="2">
+        <v>2</v>
+      </c>
+      <c r="O44" s="18">
+        <v>3</v>
+      </c>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="20"/>
+      <c r="AD44" s="20"/>
+      <c r="AE44" s="20"/>
+      <c r="AF44" s="20"/>
+      <c r="AG44" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH44" s="21">
+        <v>3</v>
+      </c>
+      <c r="AI44" s="22"/>
+      <c r="AJ44" s="22"/>
+      <c r="AK44" s="22"/>
+      <c r="AL44" s="22"/>
+      <c r="AM44" s="22"/>
+      <c r="AN44" s="22"/>
+      <c r="AO44" s="22"/>
+      <c r="AP44" s="22"/>
+      <c r="AQ44" s="22"/>
+      <c r="AR44" s="22"/>
+      <c r="AS44" s="22"/>
+      <c r="AT44" s="22"/>
+      <c r="AU44" s="22"/>
+      <c r="AV44" s="23"/>
       <c r="AW44" s="6"/>
       <c r="AX44" s="6"/>
       <c r="AY44" s="6"/>
       <c r="AZ44" s="6"/>
     </row>
-    <row r="45" spans="5:52" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:98" x14ac:dyDescent="0.25">
       <c r="E45">
-        <v>3</v>
-      </c>
-      <c r="F45" s="38">
-        <v>0</v>
+        <v>-6</v>
+      </c>
+      <c r="F45">
+        <v>-1</v>
       </c>
       <c r="G45">
-        <v>3</v>
-      </c>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <v>1</v>
-      </c>
-      <c r="T45" s="3">
-        <v>2</v>
-      </c>
-      <c r="U45" s="3">
-        <v>3</v>
-      </c>
-      <c r="V45" s="2">
-        <v>0</v>
-      </c>
-      <c r="W45" s="2">
-        <v>1</v>
-      </c>
-      <c r="X45" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y45" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
-      <c r="AG45" s="11"/>
-      <c r="AH45" s="11"/>
-      <c r="AI45" s="11"/>
-      <c r="AJ45" s="11"/>
-      <c r="AK45" s="11"/>
-      <c r="AL45" s="11"/>
-      <c r="AM45" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN45" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO45" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP45" s="10">
-        <v>1</v>
-      </c>
-      <c r="AQ45" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR45" s="10">
-        <v>2</v>
-      </c>
-      <c r="AS45" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT45" s="10">
-        <v>3</v>
-      </c>
-      <c r="AU45" s="12">
-        <v>1</v>
-      </c>
-      <c r="AV45" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="5:52" x14ac:dyDescent="0.25">
+        <v>-2</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1</v>
+      </c>
+      <c r="K45" s="3">
+        <v>2</v>
+      </c>
+      <c r="L45" s="3">
+        <v>3</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="2">
+        <v>1</v>
+      </c>
+      <c r="O45" s="18">
+        <v>2</v>
+      </c>
+      <c r="P45" s="24">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="20"/>
+      <c r="AD45" s="20"/>
+      <c r="AE45" s="20"/>
+      <c r="AF45" s="20"/>
+      <c r="AG45" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH45" s="21">
+        <v>2</v>
+      </c>
+      <c r="AI45" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ45" s="21">
+        <v>3</v>
+      </c>
+      <c r="AK45" s="22"/>
+      <c r="AL45" s="22"/>
+      <c r="AM45" s="22"/>
+      <c r="AN45" s="22"/>
+      <c r="AO45" s="22"/>
+      <c r="AP45" s="22"/>
+      <c r="AQ45" s="22"/>
+      <c r="AR45" s="22"/>
+      <c r="AS45" s="22"/>
+      <c r="AT45" s="22"/>
+      <c r="AU45" s="22"/>
+      <c r="AV45" s="23"/>
+      <c r="AW45" s="6"/>
+      <c r="AX45" s="6"/>
+      <c r="AY45" s="6"/>
+      <c r="AZ45" s="6"/>
+    </row>
+    <row r="46" spans="1:98" x14ac:dyDescent="0.25">
       <c r="E46">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="R46" s="1"/>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3">
-        <v>1</v>
-      </c>
-      <c r="U46" s="3">
-        <v>2</v>
-      </c>
-      <c r="V46" s="3">
-        <v>3</v>
-      </c>
-      <c r="W46" s="2">
-        <v>0</v>
-      </c>
-      <c r="X46" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y46" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z46" s="2">
-        <v>3</v>
-      </c>
-      <c r="AA46" s="6"/>
-      <c r="AG46" s="11"/>
-      <c r="AH46" s="11"/>
-      <c r="AI46" s="11"/>
-      <c r="AJ46" s="11"/>
-      <c r="AK46" s="11"/>
-      <c r="AL46" s="11"/>
-      <c r="AM46" s="11"/>
-      <c r="AN46" s="11"/>
-      <c r="AO46" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP46" s="10">
-        <v>0</v>
-      </c>
-      <c r="AQ46" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR46" s="10">
-        <v>1</v>
-      </c>
-      <c r="AS46" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT46" s="10">
-        <v>2</v>
-      </c>
-      <c r="AU46" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV46" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="5:52" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1</v>
+      </c>
+      <c r="L46" s="3">
+        <v>2</v>
+      </c>
+      <c r="M46" s="3">
+        <v>3</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" s="18">
+        <v>1</v>
+      </c>
+      <c r="P46" s="24">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="24">
+        <v>3</v>
+      </c>
+      <c r="R46" s="19"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="20"/>
+      <c r="AA46" s="20"/>
+      <c r="AB46" s="20"/>
+      <c r="AC46" s="20"/>
+      <c r="AD46" s="20"/>
+      <c r="AE46" s="20"/>
+      <c r="AF46" s="20"/>
+      <c r="AG46" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI46" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ46" s="21">
+        <v>2</v>
+      </c>
+      <c r="AK46" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL46" s="21">
+        <v>3</v>
+      </c>
+      <c r="AM46" s="22"/>
+      <c r="AN46" s="22"/>
+      <c r="AO46" s="22"/>
+      <c r="AP46" s="22"/>
+      <c r="AQ46" s="22"/>
+      <c r="AR46" s="22"/>
+      <c r="AS46" s="22"/>
+      <c r="AT46" s="22"/>
+      <c r="AU46" s="22"/>
+      <c r="AV46" s="23"/>
+      <c r="AW46" s="6"/>
+      <c r="AX46" s="6"/>
+      <c r="AY46" s="6"/>
+      <c r="AZ46" s="6"/>
+    </row>
+    <row r="47" spans="1:98" x14ac:dyDescent="0.25">
       <c r="E47">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3">
-        <v>1</v>
-      </c>
-      <c r="V47" s="3">
-        <v>2</v>
-      </c>
-      <c r="W47" s="3">
-        <v>3</v>
-      </c>
-      <c r="X47" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z47" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA47" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB47" s="6"/>
-      <c r="AC47" s="6"/>
-      <c r="AD47" s="6"/>
-      <c r="AG47" s="11"/>
-      <c r="AH47" s="11"/>
-      <c r="AI47" s="11"/>
-      <c r="AJ47" s="11"/>
-      <c r="AK47" s="11"/>
-      <c r="AL47" s="11"/>
-      <c r="AM47" s="11"/>
-      <c r="AN47" s="11"/>
-      <c r="AO47" s="11"/>
-      <c r="AP47" s="11"/>
-      <c r="AQ47" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR47" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS47" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT47" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU47" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV47" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="5:52" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>1</v>
+      </c>
+      <c r="M47" s="3">
+        <v>2</v>
+      </c>
+      <c r="N47" s="3">
+        <v>3</v>
+      </c>
+      <c r="O47" s="18">
+        <v>0</v>
+      </c>
+      <c r="P47" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="24">
+        <v>2</v>
+      </c>
+      <c r="R47" s="24">
+        <v>3</v>
+      </c>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="20"/>
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="20"/>
+      <c r="AC47" s="20"/>
+      <c r="AD47" s="20"/>
+      <c r="AE47" s="20"/>
+      <c r="AF47" s="20"/>
+      <c r="AG47" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH47" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ47" s="21">
+        <v>1</v>
+      </c>
+      <c r="AK47" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL47" s="21">
+        <v>2</v>
+      </c>
+      <c r="AM47" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN47" s="21">
+        <v>3</v>
+      </c>
+      <c r="AO47" s="22"/>
+      <c r="AP47" s="22"/>
+      <c r="AQ47" s="22"/>
+      <c r="AR47" s="22"/>
+      <c r="AS47" s="19"/>
+      <c r="AT47" s="19"/>
+      <c r="AU47" s="19"/>
+      <c r="AV47" s="35"/>
+      <c r="AW47" s="6"/>
+      <c r="AX47" s="6"/>
+      <c r="AY47" s="6"/>
+      <c r="AZ47" s="6"/>
+    </row>
+    <row r="48" spans="1:98" x14ac:dyDescent="0.25">
       <c r="E48">
-        <v>6</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
+        <v>-3</v>
+      </c>
+      <c r="F48" s="36">
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>2</v>
-      </c>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
-      <c r="V48" s="3">
-        <v>1</v>
-      </c>
-      <c r="W48" s="3">
-        <v>2</v>
-      </c>
-      <c r="X48" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y48" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA48" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB48" s="2">
-        <v>3</v>
-      </c>
-      <c r="AC48" s="6"/>
-      <c r="AD48" s="6"/>
-      <c r="AG48" s="11"/>
-      <c r="AH48" s="11"/>
-      <c r="AI48" s="11"/>
-      <c r="AJ48" s="11"/>
-      <c r="AK48" s="11"/>
-      <c r="AL48" s="11"/>
-      <c r="AM48" s="11"/>
-      <c r="AN48" s="11"/>
-      <c r="AO48" s="11"/>
-      <c r="AP48" s="11"/>
-      <c r="AQ48" s="11"/>
-      <c r="AR48" s="11"/>
-      <c r="AS48" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT48" s="10">
-        <v>0</v>
-      </c>
-      <c r="AU48" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV48" s="10">
-        <v>1</v>
-      </c>
+        <v>-3</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>1</v>
+      </c>
+      <c r="N48" s="3">
+        <v>2</v>
+      </c>
+      <c r="O48" s="25">
+        <v>3</v>
+      </c>
+      <c r="P48" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="24">
+        <v>1</v>
+      </c>
+      <c r="R48" s="24">
+        <v>2</v>
+      </c>
+      <c r="S48" s="24">
+        <v>3</v>
+      </c>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="20"/>
+      <c r="AB48" s="20"/>
+      <c r="AC48" s="20"/>
+      <c r="AD48" s="20"/>
+      <c r="AE48" s="20"/>
+      <c r="AF48" s="20"/>
+      <c r="AG48" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="26">
+        <v>3</v>
+      </c>
+      <c r="AI48" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ48" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL48" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM48" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN48" s="21">
+        <v>2</v>
+      </c>
+      <c r="AO48" s="21">
+        <v>1</v>
+      </c>
+      <c r="AP48" s="21">
+        <v>3</v>
+      </c>
+      <c r="AQ48" s="22"/>
+      <c r="AR48" s="22"/>
+      <c r="AS48" s="19"/>
+      <c r="AT48" s="19"/>
+      <c r="AU48" s="19"/>
+      <c r="AV48" s="35"/>
+      <c r="AW48" s="6"/>
+      <c r="AX48" s="6"/>
+      <c r="AY48" s="6"/>
+      <c r="AZ48" s="6"/>
     </row>
     <row r="49" spans="5:89" x14ac:dyDescent="0.25">
       <c r="E49">
-        <v>7</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
+        <v>-2</v>
+      </c>
+      <c r="F49" s="37">
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>3</v>
-      </c>
-      <c r="U49" s="1"/>
-      <c r="V49" s="3">
-        <v>0</v>
-      </c>
-      <c r="W49" s="3">
-        <v>1</v>
-      </c>
-      <c r="X49" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB49" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC49" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD49" s="6"/>
-      <c r="AG49" s="11"/>
-      <c r="AH49" s="11"/>
-      <c r="AI49" s="11"/>
-      <c r="AJ49" s="11"/>
-      <c r="AK49" s="11"/>
-      <c r="AL49" s="11"/>
-      <c r="AM49" s="11"/>
-      <c r="AN49" s="11"/>
-      <c r="AO49" s="11"/>
-      <c r="AP49" s="11"/>
-      <c r="AQ49" s="11"/>
-      <c r="AR49" s="11"/>
-      <c r="AS49" s="11"/>
-      <c r="AT49" s="11"/>
-      <c r="AU49" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV49" s="10">
-        <v>0</v>
-      </c>
+        <v>-2</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>1</v>
+      </c>
+      <c r="O49" s="25">
+        <v>2</v>
+      </c>
+      <c r="P49" s="27">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="24">
+        <v>0</v>
+      </c>
+      <c r="R49" s="24">
+        <v>1</v>
+      </c>
+      <c r="S49" s="24">
+        <v>2</v>
+      </c>
+      <c r="T49" s="24">
+        <v>3</v>
+      </c>
+      <c r="U49" s="19"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="20"/>
+      <c r="AA49" s="20"/>
+      <c r="AB49" s="20"/>
+      <c r="AC49" s="20"/>
+      <c r="AD49" s="20"/>
+      <c r="AE49" s="20"/>
+      <c r="AF49" s="20"/>
+      <c r="AG49" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="26">
+        <v>2</v>
+      </c>
+      <c r="AI49" s="26">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="26">
+        <v>3</v>
+      </c>
+      <c r="AK49" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL49" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN49" s="21">
+        <v>1</v>
+      </c>
+      <c r="AO49" s="21">
+        <v>1</v>
+      </c>
+      <c r="AP49" s="21">
+        <v>2</v>
+      </c>
+      <c r="AQ49" s="21">
+        <v>1</v>
+      </c>
+      <c r="AR49" s="21">
+        <v>3</v>
+      </c>
+      <c r="AS49" s="19"/>
+      <c r="AT49" s="19"/>
+      <c r="AU49" s="19"/>
+      <c r="AV49" s="35"/>
+      <c r="AW49" s="6"/>
+      <c r="AX49" s="6"/>
+      <c r="AY49" s="6"/>
+      <c r="AZ49" s="6"/>
     </row>
     <row r="50" spans="5:89" x14ac:dyDescent="0.25">
-      <c r="AG50" s="8"/>
-      <c r="AH50" s="8"/>
-      <c r="AI50" s="8"/>
-      <c r="AJ50" s="8"/>
-      <c r="AK50" s="8"/>
-      <c r="AL50" s="8"/>
-      <c r="AM50" s="8"/>
-      <c r="AN50" s="8"/>
-      <c r="AO50" s="8"/>
-      <c r="AP50" s="8"/>
-      <c r="AQ50" s="8"/>
-      <c r="AR50" s="8"/>
-      <c r="AS50" s="8"/>
-      <c r="AT50" s="8"/>
-      <c r="AU50" s="8"/>
+      <c r="E50">
+        <v>-1</v>
+      </c>
+      <c r="F50" s="37">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>-1</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="25">
+        <v>1</v>
+      </c>
+      <c r="P50" s="27">
+        <v>2</v>
+      </c>
+      <c r="Q50" s="27">
+        <v>3</v>
+      </c>
+      <c r="R50" s="24">
+        <v>0</v>
+      </c>
+      <c r="S50" s="24">
+        <v>1</v>
+      </c>
+      <c r="T50" s="24">
+        <v>2</v>
+      </c>
+      <c r="U50" s="24">
+        <v>3</v>
+      </c>
+      <c r="V50" s="19"/>
+      <c r="W50" s="39"/>
+      <c r="X50" s="39"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="20"/>
+      <c r="AA50" s="20"/>
+      <c r="AB50" s="20"/>
+      <c r="AC50" s="20"/>
+      <c r="AD50" s="20"/>
+      <c r="AE50" s="20"/>
+      <c r="AF50" s="20"/>
+      <c r="AG50" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="26">
+        <v>1</v>
+      </c>
+      <c r="AI50" s="26">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="26">
+        <v>2</v>
+      </c>
+      <c r="AK50" s="26">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="26">
+        <v>3</v>
+      </c>
+      <c r="AM50" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN50" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO50" s="21">
+        <v>1</v>
+      </c>
+      <c r="AP50" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ50" s="21">
+        <v>1</v>
+      </c>
+      <c r="AR50" s="21">
+        <v>2</v>
+      </c>
+      <c r="AS50" s="21">
+        <v>1</v>
+      </c>
+      <c r="AT50" s="21">
+        <v>3</v>
+      </c>
+      <c r="AU50" s="22"/>
+      <c r="AV50" s="23"/>
+      <c r="AW50" s="6"/>
+      <c r="AX50" s="6"/>
+      <c r="AY50" s="6"/>
+      <c r="AZ50" s="6"/>
     </row>
     <row r="51" spans="5:89" x14ac:dyDescent="0.25">
-      <c r="AG51" s="8"/>
-      <c r="AH51" s="8"/>
-      <c r="AI51" s="8"/>
-      <c r="AJ51" s="8"/>
-      <c r="AK51" s="8"/>
-      <c r="AL51" s="8"/>
-      <c r="AM51" s="8"/>
-      <c r="AN51" s="8"/>
-      <c r="AO51" s="8"/>
-      <c r="AP51" s="8"/>
-      <c r="AQ51" s="8"/>
-      <c r="AR51" s="8"/>
-      <c r="AS51" s="8"/>
-      <c r="AT51" s="8"/>
-      <c r="AU51" s="8"/>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" s="37">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="O51" s="28">
+        <v>0</v>
+      </c>
+      <c r="P51" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="29">
+        <v>2</v>
+      </c>
+      <c r="R51" s="29">
+        <v>3</v>
+      </c>
+      <c r="S51" s="30">
+        <v>0</v>
+      </c>
+      <c r="T51" s="30">
+        <v>1</v>
+      </c>
+      <c r="U51" s="30">
+        <v>2</v>
+      </c>
+      <c r="V51" s="30">
+        <v>3</v>
+      </c>
+      <c r="W51" s="40"/>
+      <c r="X51" s="40"/>
+      <c r="Y51" s="31"/>
+      <c r="Z51" s="31"/>
+      <c r="AA51" s="31"/>
+      <c r="AB51" s="31"/>
+      <c r="AC51" s="31"/>
+      <c r="AD51" s="31"/>
+      <c r="AE51" s="31"/>
+      <c r="AF51" s="31"/>
+      <c r="AG51" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK51" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="32">
+        <v>2</v>
+      </c>
+      <c r="AM51" s="32">
+        <v>0</v>
+      </c>
+      <c r="AN51" s="32">
+        <v>3</v>
+      </c>
+      <c r="AO51" s="33">
+        <v>1</v>
+      </c>
+      <c r="AP51" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ51" s="33">
+        <v>1</v>
+      </c>
+      <c r="AR51" s="33">
+        <v>1</v>
+      </c>
+      <c r="AS51" s="33">
+        <v>1</v>
+      </c>
+      <c r="AT51" s="33">
+        <v>2</v>
+      </c>
+      <c r="AU51" s="33">
+        <v>1</v>
+      </c>
+      <c r="AV51" s="34">
+        <v>3</v>
+      </c>
+      <c r="AW51" s="9"/>
+      <c r="AX51" s="9"/>
+      <c r="AY51" s="6"/>
+      <c r="AZ51" s="6"/>
     </row>
     <row r="52" spans="5:89" x14ac:dyDescent="0.25">
-      <c r="AG52" s="7"/>
-      <c r="AH52" s="7"/>
-      <c r="AI52" s="7"/>
-      <c r="AJ52" s="7"/>
-      <c r="AK52" s="7"/>
-      <c r="AL52" s="7"/>
-      <c r="AM52" s="7"/>
-      <c r="AN52" s="7"/>
-      <c r="AO52" s="7"/>
-      <c r="AP52" s="7"/>
-      <c r="AQ52" s="7"/>
-      <c r="AR52" s="7"/>
-      <c r="AS52" s="7"/>
-      <c r="AT52" s="7"/>
-      <c r="AU52" s="7"/>
-      <c r="BM52" s="6"/>
-      <c r="BN52" s="6"/>
-      <c r="BO52" s="6"/>
-      <c r="BP52" s="6"/>
-      <c r="BQ52" s="6"/>
-      <c r="BR52" s="6"/>
-      <c r="BS52" s="6"/>
-      <c r="BT52" s="6"/>
-      <c r="BU52" s="6"/>
-      <c r="BV52" s="6"/>
-      <c r="BW52" s="6"/>
-      <c r="BX52" s="6"/>
-      <c r="BY52" s="6"/>
-      <c r="BZ52" s="6"/>
-      <c r="CA52" s="6"/>
-      <c r="CB52" s="6"/>
-      <c r="CC52" s="6"/>
-      <c r="CD52" s="6"/>
-      <c r="CE52" s="6"/>
-      <c r="CF52" s="6"/>
-      <c r="CG52" s="6"/>
-      <c r="CH52" s="6"/>
-      <c r="CI52" s="6"/>
-      <c r="CJ52" s="6"/>
-      <c r="CK52" s="6"/>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="37">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="O52" s="1"/>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>1</v>
+      </c>
+      <c r="R52" s="3">
+        <v>2</v>
+      </c>
+      <c r="S52" s="3">
+        <v>3</v>
+      </c>
+      <c r="T52" s="2">
+        <v>0</v>
+      </c>
+      <c r="U52" s="2">
+        <v>1</v>
+      </c>
+      <c r="V52" s="2">
+        <v>2</v>
+      </c>
+      <c r="W52" s="2">
+        <v>3</v>
+      </c>
+      <c r="X52" s="6"/>
+      <c r="AG52" s="11"/>
+      <c r="AH52" s="11"/>
+      <c r="AI52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="10">
+        <v>2</v>
+      </c>
+      <c r="AO52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP52" s="10">
+        <v>3</v>
+      </c>
+      <c r="AQ52" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS52" s="21">
+        <v>1</v>
+      </c>
+      <c r="AT52" s="21">
+        <v>1</v>
+      </c>
+      <c r="AU52" s="21">
+        <v>1</v>
+      </c>
+      <c r="AV52" s="21">
+        <v>2</v>
+      </c>
+      <c r="AW52" s="9"/>
+      <c r="AX52" s="9"/>
+      <c r="AY52" s="9"/>
+      <c r="AZ52" s="9"/>
     </row>
     <row r="53" spans="5:89" x14ac:dyDescent="0.25">
       <c r="E53">
-        <v>-7</v>
-      </c>
-      <c r="F53" t="e">
-        <f>FLO</f>
-        <v>#NAME?</v>
+        <v>2</v>
+      </c>
+      <c r="F53" s="37">
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>-1</v>
-      </c>
-      <c r="BM53" s="6"/>
-      <c r="BN53" s="6"/>
-      <c r="BO53" s="6"/>
-      <c r="BP53" s="6"/>
-      <c r="BQ53" s="6"/>
-      <c r="BR53" s="6"/>
-      <c r="BS53" s="6"/>
-      <c r="BT53" s="6"/>
-      <c r="BU53" s="6"/>
-      <c r="BV53" s="6"/>
-      <c r="BW53" s="6"/>
-      <c r="BX53" s="6"/>
-      <c r="BY53" s="6"/>
-      <c r="BZ53" s="6"/>
-      <c r="CA53" s="6"/>
-      <c r="CB53" s="6"/>
-      <c r="CC53" s="6"/>
-      <c r="CD53" s="6"/>
-      <c r="CE53" s="6"/>
-      <c r="CF53" s="6"/>
-      <c r="CG53" s="6"/>
-      <c r="CH53" s="6"/>
-      <c r="CI53" s="6"/>
-      <c r="CJ53" s="6"/>
-      <c r="CK53" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>1</v>
+      </c>
+      <c r="S53" s="3">
+        <v>2</v>
+      </c>
+      <c r="T53" s="3">
+        <v>3</v>
+      </c>
+      <c r="U53" s="2">
+        <v>0</v>
+      </c>
+      <c r="V53" s="2">
+        <v>1</v>
+      </c>
+      <c r="W53" s="2">
+        <v>2</v>
+      </c>
+      <c r="X53" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="11"/>
+      <c r="AI53" s="11"/>
+      <c r="AJ53" s="11"/>
+      <c r="AK53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="10">
+        <v>1</v>
+      </c>
+      <c r="AO53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP53" s="10">
+        <v>2</v>
+      </c>
+      <c r="AQ53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR53" s="10">
+        <v>3</v>
+      </c>
+      <c r="AS53" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU53" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV53" s="12">
+        <v>2</v>
+      </c>
+      <c r="AW53" s="6"/>
+      <c r="AX53" s="6"/>
+      <c r="AY53" s="6"/>
+      <c r="AZ53" s="6"/>
     </row>
     <row r="54" spans="5:89" x14ac:dyDescent="0.25">
       <c r="E54">
-        <v>-6</v>
-      </c>
-      <c r="F54" t="e">
-        <f>FLO</f>
-        <v>#NAME?</v>
+        <v>3</v>
+      </c>
+      <c r="F54" s="38">
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>-1</v>
-      </c>
-      <c r="BM54" s="6"/>
-      <c r="BN54" s="6"/>
-      <c r="BO54" s="6"/>
-      <c r="BP54" s="6"/>
-      <c r="BQ54" s="6"/>
-      <c r="BR54" s="6"/>
-      <c r="BS54" s="6"/>
-      <c r="BT54" s="6"/>
-      <c r="BU54" s="6"/>
-      <c r="BV54" s="6"/>
-      <c r="BW54" s="6"/>
-      <c r="BX54" s="6"/>
-      <c r="BY54" s="6"/>
-      <c r="BZ54" s="6"/>
-      <c r="CA54" s="6"/>
-      <c r="CB54" s="6"/>
-      <c r="CC54" s="6"/>
-      <c r="CD54" s="6"/>
-      <c r="CE54" s="6"/>
-      <c r="CF54" s="6"/>
-      <c r="CG54" s="6"/>
-      <c r="CH54" s="6"/>
-      <c r="CI54" s="6"/>
-      <c r="CJ54" s="6"/>
-      <c r="CK54" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>1</v>
+      </c>
+      <c r="T54" s="3">
+        <v>2</v>
+      </c>
+      <c r="U54" s="3">
+        <v>3</v>
+      </c>
+      <c r="V54" s="2">
+        <v>0</v>
+      </c>
+      <c r="W54" s="2">
+        <v>1</v>
+      </c>
+      <c r="X54" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AG54" s="11"/>
+      <c r="AH54" s="11"/>
+      <c r="AI54" s="11"/>
+      <c r="AJ54" s="11"/>
+      <c r="AK54" s="11"/>
+      <c r="AL54" s="11"/>
+      <c r="AM54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP54" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR54" s="10">
+        <v>2</v>
+      </c>
+      <c r="AS54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT54" s="10">
+        <v>3</v>
+      </c>
+      <c r="AU54" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV54" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="5:89" x14ac:dyDescent="0.25">
       <c r="E55">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="F55">
-        <f t="shared" ref="F55:F67" si="0">FLOOR(E55/4,1)</f>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>-1</v>
-      </c>
-      <c r="BM55" s="6"/>
-      <c r="BN55" s="6"/>
-      <c r="BO55" s="6"/>
-      <c r="BP55" s="6"/>
-      <c r="BQ55" s="6"/>
-      <c r="BR55" s="6"/>
-      <c r="BS55" s="6"/>
-      <c r="BT55" s="6"/>
-      <c r="BU55" s="6"/>
-      <c r="BV55" s="6"/>
-      <c r="BW55" s="6"/>
-      <c r="BX55" s="6"/>
-      <c r="BY55" s="6"/>
-      <c r="BZ55" s="6"/>
-      <c r="CA55" s="6"/>
-      <c r="CB55" s="6"/>
-      <c r="CC55" s="6"/>
-      <c r="CD55" s="6"/>
-      <c r="CE55" s="6"/>
-      <c r="CF55" s="6"/>
-      <c r="CG55" s="6"/>
-      <c r="CH55" s="6"/>
-      <c r="CI55" s="6"/>
-      <c r="CJ55" s="6"/>
-      <c r="CK55" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="1"/>
+      <c r="S55" s="3">
+        <v>0</v>
+      </c>
+      <c r="T55" s="3">
+        <v>1</v>
+      </c>
+      <c r="U55" s="3">
+        <v>2</v>
+      </c>
+      <c r="V55" s="3">
+        <v>3</v>
+      </c>
+      <c r="W55" s="2">
+        <v>0</v>
+      </c>
+      <c r="X55" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA55" s="6"/>
+      <c r="AG55" s="11"/>
+      <c r="AH55" s="11"/>
+      <c r="AI55" s="11"/>
+      <c r="AJ55" s="11"/>
+      <c r="AK55" s="11"/>
+      <c r="AL55" s="11"/>
+      <c r="AM55" s="11"/>
+      <c r="AN55" s="11"/>
+      <c r="AO55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR55" s="10">
+        <v>1</v>
+      </c>
+      <c r="AS55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT55" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV55" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" spans="5:89" x14ac:dyDescent="0.25">
       <c r="E56">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="F56">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>-1</v>
-      </c>
-      <c r="BM56" s="6"/>
-      <c r="BN56" s="6"/>
-      <c r="BO56" s="6"/>
-      <c r="BP56" s="6"/>
-      <c r="BQ56" s="6"/>
-      <c r="BR56" s="6"/>
-      <c r="BS56" s="6"/>
-      <c r="BT56" s="6"/>
-      <c r="BU56" s="6"/>
-      <c r="BV56" s="6"/>
-      <c r="BW56" s="6"/>
-      <c r="BX56" s="6"/>
-      <c r="BY56" s="6"/>
-      <c r="BZ56" s="6"/>
-      <c r="CA56" s="6"/>
-      <c r="CB56" s="6"/>
-      <c r="CC56" s="6"/>
-      <c r="CD56" s="6"/>
-      <c r="CE56" s="6"/>
-      <c r="CF56" s="6"/>
-      <c r="CG56" s="6"/>
-      <c r="CH56" s="6"/>
-      <c r="CI56" s="6"/>
-      <c r="CJ56" s="6"/>
-      <c r="CK56" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="3">
+        <v>0</v>
+      </c>
+      <c r="U56" s="3">
+        <v>1</v>
+      </c>
+      <c r="V56" s="3">
+        <v>2</v>
+      </c>
+      <c r="W56" s="3">
+        <v>3</v>
+      </c>
+      <c r="X56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z56" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA56" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="6"/>
+      <c r="AG56" s="11"/>
+      <c r="AH56" s="11"/>
+      <c r="AI56" s="11"/>
+      <c r="AJ56" s="11"/>
+      <c r="AK56" s="11"/>
+      <c r="AL56" s="11"/>
+      <c r="AM56" s="11"/>
+      <c r="AN56" s="11"/>
+      <c r="AO56" s="11"/>
+      <c r="AP56" s="11"/>
+      <c r="AQ56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT56" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV56" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" spans="5:89" x14ac:dyDescent="0.25">
       <c r="E57">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="F57">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="G57" s="36">
-        <v>0</v>
-      </c>
-      <c r="BM57" s="6"/>
-      <c r="BN57" s="6"/>
-      <c r="BO57" s="6"/>
-      <c r="BP57" s="6"/>
-      <c r="BQ57" s="6"/>
-      <c r="BR57" s="6"/>
-      <c r="BS57" s="6"/>
-      <c r="BT57" s="6"/>
-      <c r="BU57" s="6"/>
-      <c r="BV57" s="6"/>
-      <c r="BW57" s="6"/>
-      <c r="BX57" s="6"/>
-      <c r="BY57" s="6"/>
-      <c r="BZ57" s="6"/>
-      <c r="CA57" s="6"/>
-      <c r="CB57" s="6"/>
-      <c r="CC57" s="6"/>
-      <c r="CD57" s="6"/>
-      <c r="CE57" s="6"/>
-      <c r="CF57" s="6"/>
-      <c r="CG57" s="6"/>
-      <c r="CH57" s="6"/>
-      <c r="CI57" s="6"/>
-      <c r="CJ57" s="6"/>
-      <c r="CK57" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>1</v>
+      </c>
+      <c r="W57" s="3">
+        <v>2</v>
+      </c>
+      <c r="X57" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB57" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC57" s="6"/>
+      <c r="AD57" s="6"/>
+      <c r="AG57" s="11"/>
+      <c r="AH57" s="11"/>
+      <c r="AI57" s="11"/>
+      <c r="AJ57" s="11"/>
+      <c r="AK57" s="11"/>
+      <c r="AL57" s="11"/>
+      <c r="AM57" s="11"/>
+      <c r="AN57" s="11"/>
+      <c r="AO57" s="11"/>
+      <c r="AP57" s="11"/>
+      <c r="AQ57" s="11"/>
+      <c r="AR57" s="11"/>
+      <c r="AS57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV57" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="5:89" x14ac:dyDescent="0.25">
       <c r="E58">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="G58" s="37">
-        <v>0</v>
-      </c>
-      <c r="BM58" s="6"/>
-      <c r="BN58" s="6"/>
-      <c r="BO58" s="6"/>
-      <c r="BP58" s="6"/>
-      <c r="BQ58" s="6"/>
-      <c r="BR58" s="6"/>
-      <c r="BS58" s="6"/>
-      <c r="BT58" s="6"/>
-      <c r="BU58" s="6"/>
-      <c r="BV58" s="6"/>
-      <c r="BW58" s="6"/>
-      <c r="BX58" s="6"/>
-      <c r="BY58" s="6"/>
-      <c r="BZ58" s="6"/>
-      <c r="CA58" s="6"/>
-      <c r="CB58" s="6"/>
-      <c r="CC58" s="6"/>
-      <c r="CD58" s="6"/>
-      <c r="CE58" s="6"/>
-      <c r="CF58" s="6"/>
-      <c r="CG58" s="6"/>
-      <c r="CH58" s="6"/>
-      <c r="CI58" s="6"/>
-      <c r="CJ58" s="6"/>
-      <c r="CK58" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="U58" s="1"/>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>1</v>
+      </c>
+      <c r="X58" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC58" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD58" s="6"/>
+      <c r="AG58" s="11"/>
+      <c r="AH58" s="11"/>
+      <c r="AI58" s="11"/>
+      <c r="AJ58" s="11"/>
+      <c r="AK58" s="11"/>
+      <c r="AL58" s="11"/>
+      <c r="AM58" s="11"/>
+      <c r="AN58" s="11"/>
+      <c r="AO58" s="11"/>
+      <c r="AP58" s="11"/>
+      <c r="AQ58" s="11"/>
+      <c r="AR58" s="11"/>
+      <c r="AS58" s="11"/>
+      <c r="AT58" s="11"/>
+      <c r="AU58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV58" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="5:89" x14ac:dyDescent="0.25">
-      <c r="E59">
-        <v>-1</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="G59" s="37">
-        <v>0</v>
-      </c>
-      <c r="BM59" s="6"/>
-      <c r="BN59" s="6"/>
-      <c r="BO59" s="6"/>
-      <c r="BP59" s="6"/>
-      <c r="BQ59" s="6"/>
-      <c r="BR59" s="6"/>
-      <c r="BS59" s="6"/>
-      <c r="BT59" s="6"/>
-      <c r="BU59" s="6"/>
-      <c r="BV59" s="6"/>
-      <c r="BW59" s="6"/>
-      <c r="BX59" s="6"/>
-      <c r="BY59" s="6"/>
-      <c r="BZ59" s="6"/>
-      <c r="CA59" s="6"/>
-      <c r="CB59" s="6"/>
-      <c r="CC59" s="6"/>
-      <c r="CD59" s="6"/>
-      <c r="CE59" s="6"/>
-      <c r="CF59" s="6"/>
-      <c r="CG59" s="6"/>
-      <c r="CH59" s="6"/>
-      <c r="CI59" s="6"/>
-      <c r="CJ59" s="6"/>
-      <c r="CK59" s="6"/>
+      <c r="AG59" s="8"/>
+      <c r="AH59" s="8"/>
+      <c r="AI59" s="8"/>
+      <c r="AJ59" s="8"/>
+      <c r="AK59" s="8"/>
+      <c r="AL59" s="8"/>
+      <c r="AM59" s="8"/>
+      <c r="AN59" s="8"/>
+      <c r="AO59" s="8"/>
+      <c r="AP59" s="8"/>
+      <c r="AQ59" s="8"/>
+      <c r="AR59" s="8"/>
+      <c r="AS59" s="8"/>
+      <c r="AT59" s="8"/>
+      <c r="AU59" s="8"/>
     </row>
     <row r="60" spans="5:89" x14ac:dyDescent="0.25">
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="37">
-        <v>0</v>
-      </c>
-      <c r="BM60" s="6"/>
-      <c r="BN60" s="6"/>
-      <c r="BO60" s="6"/>
-      <c r="BP60" s="6"/>
-      <c r="BQ60" s="6"/>
-      <c r="BR60" s="6"/>
-      <c r="BS60" s="6"/>
-      <c r="BT60" s="6"/>
-      <c r="BU60" s="6"/>
-      <c r="BV60" s="6"/>
-      <c r="BW60" s="6"/>
-      <c r="BX60" s="6"/>
-      <c r="BY60" s="6"/>
-      <c r="BZ60" s="6"/>
-      <c r="CA60" s="6"/>
-      <c r="CB60" s="6"/>
-      <c r="CC60" s="6"/>
-      <c r="CD60" s="6"/>
-      <c r="CE60" s="6"/>
-      <c r="CF60" s="6"/>
-      <c r="CG60" s="6"/>
-      <c r="CH60" s="6"/>
-      <c r="CI60" s="6"/>
-      <c r="CJ60" s="6"/>
-      <c r="CK60" s="6"/>
+      <c r="AG60" s="8"/>
+      <c r="AH60" s="8"/>
+      <c r="AI60" s="8"/>
+      <c r="AJ60" s="8"/>
+      <c r="AK60" s="8"/>
+      <c r="AL60" s="8"/>
+      <c r="AM60" s="8"/>
+      <c r="AN60" s="8"/>
+      <c r="AO60" s="8"/>
+      <c r="AP60" s="8"/>
+      <c r="AQ60" s="8"/>
+      <c r="AR60" s="8"/>
+      <c r="AS60" s="8"/>
+      <c r="AT60" s="8"/>
+      <c r="AU60" s="8"/>
     </row>
     <row r="61" spans="5:89" x14ac:dyDescent="0.25">
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="37">
-        <v>0</v>
-      </c>
+      <c r="AG61" s="7"/>
+      <c r="AH61" s="7"/>
+      <c r="AI61" s="7"/>
+      <c r="AJ61" s="7"/>
+      <c r="AK61" s="7"/>
+      <c r="AL61" s="7"/>
+      <c r="AM61" s="7"/>
+      <c r="AN61" s="7"/>
+      <c r="AO61" s="7"/>
+      <c r="AP61" s="7"/>
+      <c r="AQ61" s="7"/>
+      <c r="AR61" s="7"/>
+      <c r="AS61" s="7"/>
+      <c r="AT61" s="7"/>
+      <c r="AU61" s="7"/>
       <c r="BM61" s="6"/>
       <c r="BN61" s="6"/>
       <c r="BO61" s="6"/>
@@ -4349,14 +5317,14 @@
     </row>
     <row r="62" spans="5:89" x14ac:dyDescent="0.25">
       <c r="E62">
-        <v>2</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="37">
-        <v>0</v>
+        <v>-7</v>
+      </c>
+      <c r="F62" t="e">
+        <f>FLO</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G62">
+        <v>-1</v>
       </c>
       <c r="BM62" s="6"/>
       <c r="BN62" s="6"/>
@@ -4386,14 +5354,14 @@
     </row>
     <row r="63" spans="5:89" x14ac:dyDescent="0.25">
       <c r="E63">
-        <v>3</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="38">
-        <v>0</v>
+        <v>-6</v>
+      </c>
+      <c r="F63" t="e">
+        <f>FLO</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G63">
+        <v>-1</v>
       </c>
       <c r="BM63" s="6"/>
       <c r="BN63" s="6"/>
@@ -4423,14 +5391,14 @@
     </row>
     <row r="64" spans="5:89" x14ac:dyDescent="0.25">
       <c r="E64">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="F64">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="F64:F76" si="2">FLOOR(E64/4,1)</f>
+        <v>-2</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BM64" s="6"/>
       <c r="BN64" s="6"/>
@@ -4460,14 +5428,14 @@
     </row>
     <row r="65" spans="5:89" x14ac:dyDescent="0.25">
       <c r="E65">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="F65">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>-1</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BM65" s="6"/>
       <c r="BN65" s="6"/>
@@ -4497,14 +5465,14 @@
     </row>
     <row r="66" spans="5:89" x14ac:dyDescent="0.25">
       <c r="E66">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="F66">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="G66" s="36">
+        <v>0</v>
       </c>
       <c r="BM66" s="6"/>
       <c r="BN66" s="6"/>
@@ -4534,21 +5502,15 @@
     </row>
     <row r="67" spans="5:89" x14ac:dyDescent="0.25">
       <c r="E67">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="F67">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="BG67" s="6"/>
-      <c r="BH67" s="6"/>
-      <c r="BI67" s="6"/>
-      <c r="BJ67" s="6"/>
-      <c r="BK67" s="6"/>
-      <c r="BL67" s="6"/>
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="G67" s="37">
+        <v>0</v>
+      </c>
       <c r="BM67" s="6"/>
       <c r="BN67" s="6"/>
       <c r="BO67" s="6"/>
@@ -4576,12 +5538,16 @@
       <c r="CK67" s="6"/>
     </row>
     <row r="68" spans="5:89" x14ac:dyDescent="0.25">
-      <c r="BG68" s="6"/>
-      <c r="BH68" s="6"/>
-      <c r="BI68" s="6"/>
-      <c r="BJ68" s="6"/>
-      <c r="BK68" s="6"/>
-      <c r="BL68" s="6"/>
+      <c r="E68">
+        <v>-1</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="G68" s="37">
+        <v>0</v>
+      </c>
       <c r="BM68" s="6"/>
       <c r="BN68" s="6"/>
       <c r="BO68" s="6"/>
@@ -4609,12 +5575,16 @@
       <c r="CK68" s="6"/>
     </row>
     <row r="69" spans="5:89" x14ac:dyDescent="0.25">
-      <c r="BG69" s="6"/>
-      <c r="BH69" s="6"/>
-      <c r="BI69" s="6"/>
-      <c r="BJ69" s="6"/>
-      <c r="BK69" s="6"/>
-      <c r="BL69" s="6"/>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="37">
+        <v>0</v>
+      </c>
       <c r="BM69" s="6"/>
       <c r="BN69" s="6"/>
       <c r="BO69" s="6"/>
@@ -4642,12 +5612,16 @@
       <c r="CK69" s="6"/>
     </row>
     <row r="70" spans="5:89" x14ac:dyDescent="0.25">
-      <c r="BG70" s="6"/>
-      <c r="BH70" s="6"/>
-      <c r="BI70" s="6"/>
-      <c r="BJ70" s="6"/>
-      <c r="BK70" s="6"/>
-      <c r="BL70" s="6"/>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="37">
+        <v>0</v>
+      </c>
       <c r="BM70" s="6"/>
       <c r="BN70" s="6"/>
       <c r="BO70" s="6"/>
@@ -4674,7 +5648,345 @@
       <c r="CJ70" s="6"/>
       <c r="CK70" s="6"/>
     </row>
+    <row r="71" spans="5:89" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="37">
+        <v>0</v>
+      </c>
+      <c r="BM71" s="6"/>
+      <c r="BN71" s="6"/>
+      <c r="BO71" s="6"/>
+      <c r="BP71" s="6"/>
+      <c r="BQ71" s="6"/>
+      <c r="BR71" s="6"/>
+      <c r="BS71" s="6"/>
+      <c r="BT71" s="6"/>
+      <c r="BU71" s="6"/>
+      <c r="BV71" s="6"/>
+      <c r="BW71" s="6"/>
+      <c r="BX71" s="6"/>
+      <c r="BY71" s="6"/>
+      <c r="BZ71" s="6"/>
+      <c r="CA71" s="6"/>
+      <c r="CB71" s="6"/>
+      <c r="CC71" s="6"/>
+      <c r="CD71" s="6"/>
+      <c r="CE71" s="6"/>
+      <c r="CF71" s="6"/>
+      <c r="CG71" s="6"/>
+      <c r="CH71" s="6"/>
+      <c r="CI71" s="6"/>
+      <c r="CJ71" s="6"/>
+      <c r="CK71" s="6"/>
+    </row>
+    <row r="72" spans="5:89" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="38">
+        <v>0</v>
+      </c>
+      <c r="BM72" s="6"/>
+      <c r="BN72" s="6"/>
+      <c r="BO72" s="6"/>
+      <c r="BP72" s="6"/>
+      <c r="BQ72" s="6"/>
+      <c r="BR72" s="6"/>
+      <c r="BS72" s="6"/>
+      <c r="BT72" s="6"/>
+      <c r="BU72" s="6"/>
+      <c r="BV72" s="6"/>
+      <c r="BW72" s="6"/>
+      <c r="BX72" s="6"/>
+      <c r="BY72" s="6"/>
+      <c r="BZ72" s="6"/>
+      <c r="CA72" s="6"/>
+      <c r="CB72" s="6"/>
+      <c r="CC72" s="6"/>
+      <c r="CD72" s="6"/>
+      <c r="CE72" s="6"/>
+      <c r="CF72" s="6"/>
+      <c r="CG72" s="6"/>
+      <c r="CH72" s="6"/>
+      <c r="CI72" s="6"/>
+      <c r="CJ72" s="6"/>
+      <c r="CK72" s="6"/>
+    </row>
+    <row r="73" spans="5:89" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="BM73" s="6"/>
+      <c r="BN73" s="6"/>
+      <c r="BO73" s="6"/>
+      <c r="BP73" s="6"/>
+      <c r="BQ73" s="6"/>
+      <c r="BR73" s="6"/>
+      <c r="BS73" s="6"/>
+      <c r="BT73" s="6"/>
+      <c r="BU73" s="6"/>
+      <c r="BV73" s="6"/>
+      <c r="BW73" s="6"/>
+      <c r="BX73" s="6"/>
+      <c r="BY73" s="6"/>
+      <c r="BZ73" s="6"/>
+      <c r="CA73" s="6"/>
+      <c r="CB73" s="6"/>
+      <c r="CC73" s="6"/>
+      <c r="CD73" s="6"/>
+      <c r="CE73" s="6"/>
+      <c r="CF73" s="6"/>
+      <c r="CG73" s="6"/>
+      <c r="CH73" s="6"/>
+      <c r="CI73" s="6"/>
+      <c r="CJ73" s="6"/>
+      <c r="CK73" s="6"/>
+    </row>
+    <row r="74" spans="5:89" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="BM74" s="6"/>
+      <c r="BN74" s="6"/>
+      <c r="BO74" s="6"/>
+      <c r="BP74" s="6"/>
+      <c r="BQ74" s="6"/>
+      <c r="BR74" s="6"/>
+      <c r="BS74" s="6"/>
+      <c r="BT74" s="6"/>
+      <c r="BU74" s="6"/>
+      <c r="BV74" s="6"/>
+      <c r="BW74" s="6"/>
+      <c r="BX74" s="6"/>
+      <c r="BY74" s="6"/>
+      <c r="BZ74" s="6"/>
+      <c r="CA74" s="6"/>
+      <c r="CB74" s="6"/>
+      <c r="CC74" s="6"/>
+      <c r="CD74" s="6"/>
+      <c r="CE74" s="6"/>
+      <c r="CF74" s="6"/>
+      <c r="CG74" s="6"/>
+      <c r="CH74" s="6"/>
+      <c r="CI74" s="6"/>
+      <c r="CJ74" s="6"/>
+      <c r="CK74" s="6"/>
+    </row>
+    <row r="75" spans="5:89" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>6</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="BM75" s="6"/>
+      <c r="BN75" s="6"/>
+      <c r="BO75" s="6"/>
+      <c r="BP75" s="6"/>
+      <c r="BQ75" s="6"/>
+      <c r="BR75" s="6"/>
+      <c r="BS75" s="6"/>
+      <c r="BT75" s="6"/>
+      <c r="BU75" s="6"/>
+      <c r="BV75" s="6"/>
+      <c r="BW75" s="6"/>
+      <c r="BX75" s="6"/>
+      <c r="BY75" s="6"/>
+      <c r="BZ75" s="6"/>
+      <c r="CA75" s="6"/>
+      <c r="CB75" s="6"/>
+      <c r="CC75" s="6"/>
+      <c r="CD75" s="6"/>
+      <c r="CE75" s="6"/>
+      <c r="CF75" s="6"/>
+      <c r="CG75" s="6"/>
+      <c r="CH75" s="6"/>
+      <c r="CI75" s="6"/>
+      <c r="CJ75" s="6"/>
+      <c r="CK75" s="6"/>
+    </row>
+    <row r="76" spans="5:89" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>7</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="BG76" s="6"/>
+      <c r="BH76" s="6"/>
+      <c r="BI76" s="6"/>
+      <c r="BJ76" s="6"/>
+      <c r="BK76" s="6"/>
+      <c r="BL76" s="6"/>
+      <c r="BM76" s="6"/>
+      <c r="BN76" s="6"/>
+      <c r="BO76" s="6"/>
+      <c r="BP76" s="6"/>
+      <c r="BQ76" s="6"/>
+      <c r="BR76" s="6"/>
+      <c r="BS76" s="6"/>
+      <c r="BT76" s="6"/>
+      <c r="BU76" s="6"/>
+      <c r="BV76" s="6"/>
+      <c r="BW76" s="6"/>
+      <c r="BX76" s="6"/>
+      <c r="BY76" s="6"/>
+      <c r="BZ76" s="6"/>
+      <c r="CA76" s="6"/>
+      <c r="CB76" s="6"/>
+      <c r="CC76" s="6"/>
+      <c r="CD76" s="6"/>
+      <c r="CE76" s="6"/>
+      <c r="CF76" s="6"/>
+      <c r="CG76" s="6"/>
+      <c r="CH76" s="6"/>
+      <c r="CI76" s="6"/>
+      <c r="CJ76" s="6"/>
+      <c r="CK76" s="6"/>
+    </row>
+    <row r="77" spans="5:89" x14ac:dyDescent="0.25">
+      <c r="BG77" s="6"/>
+      <c r="BH77" s="6"/>
+      <c r="BI77" s="6"/>
+      <c r="BJ77" s="6"/>
+      <c r="BK77" s="6"/>
+      <c r="BL77" s="6"/>
+      <c r="BM77" s="6"/>
+      <c r="BN77" s="6"/>
+      <c r="BO77" s="6"/>
+      <c r="BP77" s="6"/>
+      <c r="BQ77" s="6"/>
+      <c r="BR77" s="6"/>
+      <c r="BS77" s="6"/>
+      <c r="BT77" s="6"/>
+      <c r="BU77" s="6"/>
+      <c r="BV77" s="6"/>
+      <c r="BW77" s="6"/>
+      <c r="BX77" s="6"/>
+      <c r="BY77" s="6"/>
+      <c r="BZ77" s="6"/>
+      <c r="CA77" s="6"/>
+      <c r="CB77" s="6"/>
+      <c r="CC77" s="6"/>
+      <c r="CD77" s="6"/>
+      <c r="CE77" s="6"/>
+      <c r="CF77" s="6"/>
+      <c r="CG77" s="6"/>
+      <c r="CH77" s="6"/>
+      <c r="CI77" s="6"/>
+      <c r="CJ77" s="6"/>
+      <c r="CK77" s="6"/>
+    </row>
+    <row r="78" spans="5:89" x14ac:dyDescent="0.25">
+      <c r="BG78" s="6"/>
+      <c r="BH78" s="6"/>
+      <c r="BI78" s="6"/>
+      <c r="BJ78" s="6"/>
+      <c r="BK78" s="6"/>
+      <c r="BL78" s="6"/>
+      <c r="BM78" s="6"/>
+      <c r="BN78" s="6"/>
+      <c r="BO78" s="6"/>
+      <c r="BP78" s="6"/>
+      <c r="BQ78" s="6"/>
+      <c r="BR78" s="6"/>
+      <c r="BS78" s="6"/>
+      <c r="BT78" s="6"/>
+      <c r="BU78" s="6"/>
+      <c r="BV78" s="6"/>
+      <c r="BW78" s="6"/>
+      <c r="BX78" s="6"/>
+      <c r="BY78" s="6"/>
+      <c r="BZ78" s="6"/>
+      <c r="CA78" s="6"/>
+      <c r="CB78" s="6"/>
+      <c r="CC78" s="6"/>
+      <c r="CD78" s="6"/>
+      <c r="CE78" s="6"/>
+      <c r="CF78" s="6"/>
+      <c r="CG78" s="6"/>
+      <c r="CH78" s="6"/>
+      <c r="CI78" s="6"/>
+      <c r="CJ78" s="6"/>
+      <c r="CK78" s="6"/>
+    </row>
+    <row r="79" spans="5:89" x14ac:dyDescent="0.25">
+      <c r="BG79" s="6"/>
+      <c r="BH79" s="6"/>
+      <c r="BI79" s="6"/>
+      <c r="BJ79" s="6"/>
+      <c r="BK79" s="6"/>
+      <c r="BL79" s="6"/>
+      <c r="BM79" s="6"/>
+      <c r="BN79" s="6"/>
+      <c r="BO79" s="6"/>
+      <c r="BP79" s="6"/>
+      <c r="BQ79" s="6"/>
+      <c r="BR79" s="6"/>
+      <c r="BS79" s="6"/>
+      <c r="BT79" s="6"/>
+      <c r="BU79" s="6"/>
+      <c r="BV79" s="6"/>
+      <c r="BW79" s="6"/>
+      <c r="BX79" s="6"/>
+      <c r="BY79" s="6"/>
+      <c r="BZ79" s="6"/>
+      <c r="CA79" s="6"/>
+      <c r="CB79" s="6"/>
+      <c r="CC79" s="6"/>
+      <c r="CD79" s="6"/>
+      <c r="CE79" s="6"/>
+      <c r="CF79" s="6"/>
+      <c r="CG79" s="6"/>
+      <c r="CH79" s="6"/>
+      <c r="CI79" s="6"/>
+      <c r="CJ79" s="6"/>
+      <c r="CK79" s="6"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="C33:CO33">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISNUMBER(SEARCH($C$29, C33))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:CO32">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>